--- a/04_Model_Saved/NN_full_RepeatedKFold_v3_BO_test/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML.xlsx
+++ b/04_Model_Saved/NN_full_RepeatedKFold_v3_BO_test/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML.xlsx
@@ -508,16 +508,16 @@
         <v>14.31699359657089</v>
       </c>
       <c r="H2" t="n">
-        <v>232.7099151611328</v>
+        <v>231.8496856689453</v>
       </c>
       <c r="I2" t="n">
-        <v>53.69454574584961</v>
+        <v>52.72971343994141</v>
       </c>
       <c r="J2" t="n">
-        <v>654.572265625</v>
+        <v>647.1719970703125</v>
       </c>
       <c r="K2" t="n">
-        <v>117.8868789672852</v>
+        <v>113.8236618041992</v>
       </c>
     </row>
     <row r="3">
@@ -543,16 +543,16 @@
         <v>15.27891067420843</v>
       </c>
       <c r="H3" t="n">
-        <v>242.6285095214844</v>
+        <v>241.9998931884766</v>
       </c>
       <c r="I3" t="n">
-        <v>52.91952514648438</v>
+        <v>52.80441284179688</v>
       </c>
       <c r="J3" t="n">
-        <v>720.3274536132812</v>
+        <v>717.3290405273438</v>
       </c>
       <c r="K3" t="n">
-        <v>123.5051956176758</v>
+        <v>125.7410354614258</v>
       </c>
     </row>
     <row r="4">
@@ -578,16 +578,16 @@
         <v>15.85974020072816</v>
       </c>
       <c r="H4" t="n">
-        <v>262.1871337890625</v>
+        <v>263.0057983398438</v>
       </c>
       <c r="I4" t="n">
-        <v>54.54971694946289</v>
+        <v>56.37193298339844</v>
       </c>
       <c r="J4" t="n">
-        <v>765.783203125</v>
+        <v>760.2844848632812</v>
       </c>
       <c r="K4" t="n">
-        <v>127.8674392700195</v>
+        <v>134.4293212890625</v>
       </c>
     </row>
     <row r="5">
@@ -613,16 +613,16 @@
         <v>16.6254486072678</v>
       </c>
       <c r="H5" t="n">
-        <v>295.5096740722656</v>
+        <v>289.5904235839844</v>
       </c>
       <c r="I5" t="n">
-        <v>65.24320983886719</v>
+        <v>63.87051010131836</v>
       </c>
       <c r="J5" t="n">
-        <v>802.726806640625</v>
+        <v>804.041015625</v>
       </c>
       <c r="K5" t="n">
-        <v>141.9679870605469</v>
+        <v>141.6406402587891</v>
       </c>
     </row>
     <row r="6">
@@ -648,16 +648,16 @@
         <v>16.72168606967666</v>
       </c>
       <c r="H6" t="n">
-        <v>370.5730590820312</v>
+        <v>368.0390014648438</v>
       </c>
       <c r="I6" t="n">
-        <v>117.76904296875</v>
+        <v>114.7428207397461</v>
       </c>
       <c r="J6" t="n">
-        <v>831.8810424804688</v>
+        <v>825.9567260742188</v>
       </c>
       <c r="K6" t="n">
-        <v>150.366455078125</v>
+        <v>154.4365844726562</v>
       </c>
     </row>
     <row r="7">
@@ -683,16 +683,16 @@
         <v>17.58023045110392</v>
       </c>
       <c r="H7" t="n">
-        <v>215.8063354492188</v>
+        <v>215.6542816162109</v>
       </c>
       <c r="I7" t="n">
-        <v>55.69437026977539</v>
+        <v>55.8636474609375</v>
       </c>
       <c r="J7" t="n">
-        <v>571.6752319335938</v>
+        <v>569.8197631835938</v>
       </c>
       <c r="K7" t="n">
-        <v>108.0506973266602</v>
+        <v>111.9212341308594</v>
       </c>
     </row>
     <row r="8">
@@ -718,16 +718,16 @@
         <v>18.57818076528054</v>
       </c>
       <c r="H8" t="n">
-        <v>227.4426879882812</v>
+        <v>225.4654235839844</v>
       </c>
       <c r="I8" t="n">
-        <v>54.85674667358398</v>
+        <v>53.33251953125</v>
       </c>
       <c r="J8" t="n">
-        <v>623.5363159179688</v>
+        <v>618.8076782226562</v>
       </c>
       <c r="K8" t="n">
-        <v>116.8705825805664</v>
+        <v>113.5267105102539</v>
       </c>
     </row>
     <row r="9">
@@ -753,16 +753,16 @@
         <v>19.60838259075554</v>
       </c>
       <c r="H9" t="n">
-        <v>236.8556976318359</v>
+        <v>238.2052612304688</v>
       </c>
       <c r="I9" t="n">
-        <v>49.90835189819336</v>
+        <v>50.76039123535156</v>
       </c>
       <c r="J9" t="n">
-        <v>686.5584106445312</v>
+        <v>691.9067993164062</v>
       </c>
       <c r="K9" t="n">
-        <v>121.96435546875</v>
+        <v>122.7264556884766</v>
       </c>
     </row>
     <row r="10">
@@ -788,16 +788,16 @@
         <v>20.10500298210745</v>
       </c>
       <c r="H10" t="n">
-        <v>250.5552368164062</v>
+        <v>249.82275390625</v>
       </c>
       <c r="I10" t="n">
-        <v>49.34125137329102</v>
+        <v>49.10671615600586</v>
       </c>
       <c r="J10" t="n">
-        <v>732.6426391601562</v>
+        <v>738.0049438476562</v>
       </c>
       <c r="K10" t="n">
-        <v>130.9811096191406</v>
+        <v>133.7498321533203</v>
       </c>
     </row>
     <row r="11">
@@ -823,16 +823,16 @@
         <v>20.82282672295324</v>
       </c>
       <c r="H11" t="n">
-        <v>273.0569763183594</v>
+        <v>275.0804443359375</v>
       </c>
       <c r="I11" t="n">
-        <v>51.26993179321289</v>
+        <v>52.09206008911133</v>
       </c>
       <c r="J11" t="n">
-        <v>786.1830444335938</v>
+        <v>789.5617065429688</v>
       </c>
       <c r="K11" t="n">
-        <v>138.0954895019531</v>
+        <v>140.9336090087891</v>
       </c>
     </row>
     <row r="12">
@@ -858,16 +858,16 @@
         <v>21.05931589769223</v>
       </c>
       <c r="H12" t="n">
-        <v>336.9079284667969</v>
+        <v>335.6576843261719</v>
       </c>
       <c r="I12" t="n">
-        <v>94.84645080566406</v>
+        <v>91.45874786376953</v>
       </c>
       <c r="J12" t="n">
-        <v>824.1318359375</v>
+        <v>821.0256958007812</v>
       </c>
       <c r="K12" t="n">
-        <v>154.6297149658203</v>
+        <v>156.9872589111328</v>
       </c>
     </row>
     <row r="13">
@@ -893,16 +893,16 @@
         <v>21.38449445236935</v>
       </c>
       <c r="H13" t="n">
-        <v>462.9727172851562</v>
+        <v>467.8382873535156</v>
       </c>
       <c r="I13" t="n">
-        <v>141.7927398681641</v>
+        <v>145.4431610107422</v>
       </c>
       <c r="J13" t="n">
-        <v>868.475341796875</v>
+        <v>860.7162475585938</v>
       </c>
       <c r="K13" t="n">
-        <v>163.7056579589844</v>
+        <v>169.7913665771484</v>
       </c>
     </row>
     <row r="14">
@@ -928,16 +928,16 @@
         <v>19.79697020692051</v>
       </c>
       <c r="H14" t="n">
-        <v>196.2879028320312</v>
+        <v>198.3458862304688</v>
       </c>
       <c r="I14" t="n">
-        <v>57.75313186645508</v>
+        <v>58.72444534301758</v>
       </c>
       <c r="J14" t="n">
-        <v>427.6751708984375</v>
+        <v>428.1403503417969</v>
       </c>
       <c r="K14" t="n">
-        <v>108.9098892211914</v>
+        <v>112.0287628173828</v>
       </c>
     </row>
     <row r="15">
@@ -963,16 +963,16 @@
         <v>21.48203443327129</v>
       </c>
       <c r="H15" t="n">
-        <v>209.0777435302734</v>
+        <v>212.6570892333984</v>
       </c>
       <c r="I15" t="n">
-        <v>55.1937141418457</v>
+        <v>56.33566284179688</v>
       </c>
       <c r="J15" t="n">
-        <v>517.3310546875</v>
+        <v>519.0161743164062</v>
       </c>
       <c r="K15" t="n">
-        <v>117.4663696289062</v>
+        <v>113.3501434326172</v>
       </c>
     </row>
     <row r="16">
@@ -998,16 +998,16 @@
         <v>22.47631622738632</v>
       </c>
       <c r="H16" t="n">
-        <v>229.4867706298828</v>
+        <v>229.9047698974609</v>
       </c>
       <c r="I16" t="n">
-        <v>57.05561447143555</v>
+        <v>53.62378311157227</v>
       </c>
       <c r="J16" t="n">
-        <v>647.751953125</v>
+        <v>648.4169921875</v>
       </c>
       <c r="K16" t="n">
-        <v>125.7943725585938</v>
+        <v>124.3277206420898</v>
       </c>
     </row>
     <row r="17">
@@ -1033,16 +1033,16 @@
         <v>24.35763244318183</v>
       </c>
       <c r="H17" t="n">
-        <v>236.1466674804688</v>
+        <v>233.6376800537109</v>
       </c>
       <c r="I17" t="n">
-        <v>51.48546600341797</v>
+        <v>49.29236221313477</v>
       </c>
       <c r="J17" t="n">
-        <v>672.69140625</v>
+        <v>672.099365234375</v>
       </c>
       <c r="K17" t="n">
-        <v>127.9045791625977</v>
+        <v>127.265022277832</v>
       </c>
     </row>
     <row r="18">
@@ -1068,16 +1068,16 @@
         <v>25.62064236797445</v>
       </c>
       <c r="H18" t="n">
-        <v>248.2507781982422</v>
+        <v>248.1317749023438</v>
       </c>
       <c r="I18" t="n">
-        <v>48.50571441650391</v>
+        <v>49.0767707824707</v>
       </c>
       <c r="J18" t="n">
-        <v>725.555908203125</v>
+        <v>725.1392211914062</v>
       </c>
       <c r="K18" t="n">
-        <v>131.9340057373047</v>
+        <v>130.2348937988281</v>
       </c>
     </row>
     <row r="19">
@@ -1103,16 +1103,16 @@
         <v>25.92967709475499</v>
       </c>
       <c r="H19" t="n">
-        <v>269.305419921875</v>
+        <v>272.4029846191406</v>
       </c>
       <c r="I19" t="n">
-        <v>46.08860397338867</v>
+        <v>47.61838150024414</v>
       </c>
       <c r="J19" t="n">
-        <v>779.826904296875</v>
+        <v>782.1040649414062</v>
       </c>
       <c r="K19" t="n">
-        <v>150.5820770263672</v>
+        <v>148.2809143066406</v>
       </c>
     </row>
     <row r="20">
@@ -1138,16 +1138,16 @@
         <v>26.19588155013293</v>
       </c>
       <c r="H20" t="n">
-        <v>312.8104553222656</v>
+        <v>314.6540832519531</v>
       </c>
       <c r="I20" t="n">
-        <v>66.14888763427734</v>
+        <v>65.46791839599609</v>
       </c>
       <c r="J20" t="n">
-        <v>826.4891357421875</v>
+        <v>820.3662719726562</v>
       </c>
       <c r="K20" t="n">
-        <v>157.9814758300781</v>
+        <v>156.9010314941406</v>
       </c>
     </row>
     <row r="21">
@@ -1173,16 +1173,16 @@
         <v>25.87267490890685</v>
       </c>
       <c r="H21" t="n">
-        <v>452.6675109863281</v>
+        <v>454.596923828125</v>
       </c>
       <c r="I21" t="n">
-        <v>137.1203002929688</v>
+        <v>132.0360260009766</v>
       </c>
       <c r="J21" t="n">
-        <v>859.5655517578125</v>
+        <v>860.5944213867188</v>
       </c>
       <c r="K21" t="n">
-        <v>176.9765014648438</v>
+        <v>178.3103179931641</v>
       </c>
     </row>
     <row r="22">
@@ -1208,16 +1208,16 @@
         <v>24.64055238634836</v>
       </c>
       <c r="H22" t="n">
-        <v>692.9115600585938</v>
+        <v>692.645751953125</v>
       </c>
       <c r="I22" t="n">
-        <v>105.6058654785156</v>
+        <v>101.7634582519531</v>
       </c>
       <c r="J22" t="n">
-        <v>885.223876953125</v>
+        <v>894.3405151367188</v>
       </c>
       <c r="K22" t="n">
-        <v>199.5535125732422</v>
+        <v>193.1042175292969</v>
       </c>
     </row>
     <row r="23">
@@ -1243,16 +1243,16 @@
         <v>24.69862396067251</v>
       </c>
       <c r="H23" t="n">
-        <v>191.4505767822266</v>
+        <v>193.8776702880859</v>
       </c>
       <c r="I23" t="n">
-        <v>58.19939422607422</v>
+        <v>59.27937698364258</v>
       </c>
       <c r="J23" t="n">
-        <v>361.3974609375</v>
+        <v>361.98046875</v>
       </c>
       <c r="K23" t="n">
-        <v>118.7195053100586</v>
+        <v>117.2667846679688</v>
       </c>
     </row>
     <row r="24">
@@ -1278,16 +1278,16 @@
         <v>27.11629087610016</v>
       </c>
       <c r="H24" t="n">
-        <v>205.2772827148438</v>
+        <v>203.9053955078125</v>
       </c>
       <c r="I24" t="n">
-        <v>56.33897399902344</v>
+        <v>55.65445709228516</v>
       </c>
       <c r="J24" t="n">
-        <v>425.5855102539062</v>
+        <v>432.29736328125</v>
       </c>
       <c r="K24" t="n">
-        <v>125.8808059692383</v>
+        <v>125.2552261352539</v>
       </c>
     </row>
     <row r="25">
@@ -1313,16 +1313,16 @@
         <v>28.97995691733995</v>
       </c>
       <c r="H25" t="n">
-        <v>222.9550476074219</v>
+        <v>220.0992126464844</v>
       </c>
       <c r="I25" t="n">
-        <v>56.86328887939453</v>
+        <v>54.84769821166992</v>
       </c>
       <c r="J25" t="n">
-        <v>533.3236083984375</v>
+        <v>536.1260986328125</v>
       </c>
       <c r="K25" t="n">
-        <v>127.3033905029297</v>
+        <v>130.5030212402344</v>
       </c>
     </row>
     <row r="26">
@@ -1348,16 +1348,16 @@
         <v>30.34265377319738</v>
       </c>
       <c r="H26" t="n">
-        <v>240.0974731445312</v>
+        <v>237.4264068603516</v>
       </c>
       <c r="I26" t="n">
-        <v>53.75680541992188</v>
+        <v>52.64910125732422</v>
       </c>
       <c r="J26" t="n">
-        <v>621.3120727539062</v>
+        <v>620.468505859375</v>
       </c>
       <c r="K26" t="n">
-        <v>127.8650894165039</v>
+        <v>130.63427734375</v>
       </c>
     </row>
     <row r="27">
@@ -1383,16 +1383,16 @@
         <v>31.86528713449996</v>
       </c>
       <c r="H27" t="n">
-        <v>254.1990661621094</v>
+        <v>255.6773376464844</v>
       </c>
       <c r="I27" t="n">
-        <v>50.61848831176758</v>
+        <v>52.02304840087891</v>
       </c>
       <c r="J27" t="n">
-        <v>709.76416015625</v>
+        <v>705.3692016601562</v>
       </c>
       <c r="K27" t="n">
-        <v>142.4917297363281</v>
+        <v>140.7825164794922</v>
       </c>
     </row>
     <row r="28">
@@ -1418,16 +1418,16 @@
         <v>31.70139237157215</v>
       </c>
       <c r="H28" t="n">
-        <v>276.6705322265625</v>
+        <v>277.6600646972656</v>
       </c>
       <c r="I28" t="n">
-        <v>50.03429412841797</v>
+        <v>51.01528549194336</v>
       </c>
       <c r="J28" t="n">
-        <v>785.8278198242188</v>
+        <v>781.2368774414062</v>
       </c>
       <c r="K28" t="n">
-        <v>150.7039947509766</v>
+        <v>152.830322265625</v>
       </c>
     </row>
     <row r="29">
@@ -1453,16 +1453,16 @@
         <v>31.7420363140709</v>
       </c>
       <c r="H29" t="n">
-        <v>315.0847778320312</v>
+        <v>314.7935180664062</v>
       </c>
       <c r="I29" t="n">
-        <v>63.06354522705078</v>
+        <v>65.46258544921875</v>
       </c>
       <c r="J29" t="n">
-        <v>840.6376342773438</v>
+        <v>830.720703125</v>
       </c>
       <c r="K29" t="n">
-        <v>168.8995971679688</v>
+        <v>163.7962493896484</v>
       </c>
     </row>
     <row r="30">
@@ -1488,16 +1488,16 @@
         <v>30.76237588603813</v>
       </c>
       <c r="H30" t="n">
-        <v>446.364013671875</v>
+        <v>448.4394226074219</v>
       </c>
       <c r="I30" t="n">
-        <v>112.8701171875</v>
+        <v>116.9009170532227</v>
       </c>
       <c r="J30" t="n">
-        <v>862.8755493164062</v>
+        <v>867.2620239257812</v>
       </c>
       <c r="K30" t="n">
-        <v>186.1468811035156</v>
+        <v>188.1968536376953</v>
       </c>
     </row>
     <row r="31">
@@ -1523,16 +1523,16 @@
         <v>29.73442789455431</v>
       </c>
       <c r="H31" t="n">
-        <v>668.1478881835938</v>
+        <v>670.494140625</v>
       </c>
       <c r="I31" t="n">
-        <v>104.3758163452148</v>
+        <v>103.6687240600586</v>
       </c>
       <c r="J31" t="n">
-        <v>875.6439819335938</v>
+        <v>880.8169555664062</v>
       </c>
       <c r="K31" t="n">
-        <v>201.8509979248047</v>
+        <v>202.9771423339844</v>
       </c>
     </row>
     <row r="32">
@@ -1558,16 +1558,16 @@
         <v>30.37782838567884</v>
       </c>
       <c r="H32" t="n">
-        <v>189.3743591308594</v>
+        <v>189.0094909667969</v>
       </c>
       <c r="I32" t="n">
-        <v>58.27254486083984</v>
+        <v>59.96341323852539</v>
       </c>
       <c r="J32" t="n">
-        <v>285.3407592773438</v>
+        <v>288.8533020019531</v>
       </c>
       <c r="K32" t="n">
-        <v>125.8087387084961</v>
+        <v>131.2087707519531</v>
       </c>
     </row>
     <row r="33">
@@ -1593,16 +1593,16 @@
         <v>33.11659379389907</v>
       </c>
       <c r="H33" t="n">
-        <v>204.0766754150391</v>
+        <v>206.3834991455078</v>
       </c>
       <c r="I33" t="n">
-        <v>56.19302368164062</v>
+        <v>57.30771255493164</v>
       </c>
       <c r="J33" t="n">
-        <v>368.7865905761719</v>
+        <v>372.6679382324219</v>
       </c>
       <c r="K33" t="n">
-        <v>132.4835815429688</v>
+        <v>135.1004486083984</v>
       </c>
     </row>
     <row r="34">
@@ -1628,16 +1628,16 @@
         <v>35.40504769440309</v>
       </c>
       <c r="H34" t="n">
-        <v>226.6550445556641</v>
+        <v>222.6509399414062</v>
       </c>
       <c r="I34" t="n">
-        <v>58.88375854492188</v>
+        <v>56.03182983398438</v>
       </c>
       <c r="J34" t="n">
-        <v>463.7271423339844</v>
+        <v>462.5255737304688</v>
       </c>
       <c r="K34" t="n">
-        <v>134.3536987304688</v>
+        <v>137.7562561035156</v>
       </c>
     </row>
     <row r="35">
@@ -1663,16 +1663,16 @@
         <v>37.57764389518124</v>
       </c>
       <c r="H35" t="n">
-        <v>247.1862030029297</v>
+        <v>244.3487243652344</v>
       </c>
       <c r="I35" t="n">
-        <v>60.17078018188477</v>
+        <v>59.50486373901367</v>
       </c>
       <c r="J35" t="n">
-        <v>560.1412353515625</v>
+        <v>560.543212890625</v>
       </c>
       <c r="K35" t="n">
-        <v>146.4126739501953</v>
+        <v>147.0112457275391</v>
       </c>
     </row>
     <row r="36">
@@ -1698,16 +1698,16 @@
         <v>38.09115608907656</v>
       </c>
       <c r="H36" t="n">
-        <v>270.4784240722656</v>
+        <v>267.324462890625</v>
       </c>
       <c r="I36" t="n">
-        <v>57.50208282470703</v>
+        <v>58.89407348632812</v>
       </c>
       <c r="J36" t="n">
-        <v>687.0065307617188</v>
+        <v>692.5098876953125</v>
       </c>
       <c r="K36" t="n">
-        <v>156.7158966064453</v>
+        <v>156.5370941162109</v>
       </c>
     </row>
     <row r="37">
@@ -1733,16 +1733,16 @@
         <v>38.33579750611559</v>
       </c>
       <c r="H37" t="n">
-        <v>295.1630554199219</v>
+        <v>291.0417785644531</v>
       </c>
       <c r="I37" t="n">
-        <v>61.41986465454102</v>
+        <v>57.72601699829102</v>
       </c>
       <c r="J37" t="n">
-        <v>785.06591796875</v>
+        <v>778.412841796875</v>
       </c>
       <c r="K37" t="n">
-        <v>171.6326141357422</v>
+        <v>167.3828582763672</v>
       </c>
     </row>
     <row r="38">
@@ -1768,16 +1768,16 @@
         <v>37.89528654115976</v>
       </c>
       <c r="H38" t="n">
-        <v>348.3580322265625</v>
+        <v>346.7905578613281</v>
       </c>
       <c r="I38" t="n">
-        <v>79.09794616699219</v>
+        <v>78.72838592529297</v>
       </c>
       <c r="J38" t="n">
-        <v>840.677734375</v>
+        <v>837.7271118164062</v>
       </c>
       <c r="K38" t="n">
-        <v>182.0511016845703</v>
+        <v>175.7696380615234</v>
       </c>
     </row>
     <row r="39">
@@ -1803,16 +1803,16 @@
         <v>37.04916938976096</v>
       </c>
       <c r="H39" t="n">
-        <v>453.3392639160156</v>
+        <v>456.9529113769531</v>
       </c>
       <c r="I39" t="n">
-        <v>101.0238723754883</v>
+        <v>102.3518142700195</v>
       </c>
       <c r="J39" t="n">
-        <v>866.2927856445312</v>
+        <v>867.0564575195312</v>
       </c>
       <c r="K39" t="n">
-        <v>195.4878234863281</v>
+        <v>195.4517669677734</v>
       </c>
     </row>
     <row r="40">
@@ -1838,16 +1838,16 @@
         <v>35.00856026880581</v>
       </c>
       <c r="H40" t="n">
-        <v>645.289794921875</v>
+        <v>646.2682495117188</v>
       </c>
       <c r="I40" t="n">
-        <v>96.59356689453125</v>
+        <v>93.77596282958984</v>
       </c>
       <c r="J40" t="n">
-        <v>883.7227172851562</v>
+        <v>882.3577880859375</v>
       </c>
       <c r="K40" t="n">
-        <v>210.076416015625</v>
+        <v>217.413330078125</v>
       </c>
     </row>
     <row r="41">
@@ -1873,16 +1873,16 @@
         <v>37.58863922492247</v>
       </c>
       <c r="H41" t="n">
-        <v>193.474853515625</v>
+        <v>193.0362396240234</v>
       </c>
       <c r="I41" t="n">
-        <v>59.29357528686523</v>
+        <v>60.34096908569336</v>
       </c>
       <c r="J41" t="n">
-        <v>242.98876953125</v>
+        <v>245.9814910888672</v>
       </c>
       <c r="K41" t="n">
-        <v>124.44091796875</v>
+        <v>131.5015716552734</v>
       </c>
     </row>
     <row r="42">
@@ -1908,16 +1908,16 @@
         <v>40.4685427958547</v>
       </c>
       <c r="H42" t="n">
-        <v>209.2075958251953</v>
+        <v>210.6201629638672</v>
       </c>
       <c r="I42" t="n">
-        <v>59.58915328979492</v>
+        <v>60.19225311279297</v>
       </c>
       <c r="J42" t="n">
-        <v>306.3052978515625</v>
+        <v>300.7827453613281</v>
       </c>
       <c r="K42" t="n">
-        <v>133.2021331787109</v>
+        <v>134.1195983886719</v>
       </c>
     </row>
     <row r="43">
@@ -1943,16 +1943,16 @@
         <v>42.41365999634309</v>
       </c>
       <c r="H43" t="n">
-        <v>225.2677307128906</v>
+        <v>222.561767578125</v>
       </c>
       <c r="I43" t="n">
-        <v>62.96911239624023</v>
+        <v>62.82779693603516</v>
       </c>
       <c r="J43" t="n">
-        <v>360.4033203125</v>
+        <v>355.9721374511719</v>
       </c>
       <c r="K43" t="n">
-        <v>135.3839569091797</v>
+        <v>137.3983459472656</v>
       </c>
     </row>
     <row r="44">
@@ -1978,16 +1978,16 @@
         <v>44.05056700894834</v>
       </c>
       <c r="H44" t="n">
-        <v>251.6863861083984</v>
+        <v>253.1333312988281</v>
       </c>
       <c r="I44" t="n">
-        <v>66.57134246826172</v>
+        <v>65.23729705810547</v>
       </c>
       <c r="J44" t="n">
-        <v>493.3371887207031</v>
+        <v>499.8436584472656</v>
       </c>
       <c r="K44" t="n">
-        <v>152.2694549560547</v>
+        <v>151.7545776367188</v>
       </c>
     </row>
     <row r="45">
@@ -2013,16 +2013,16 @@
         <v>45.28527361475503</v>
       </c>
       <c r="H45" t="n">
-        <v>278.8035278320312</v>
+        <v>276.3482666015625</v>
       </c>
       <c r="I45" t="n">
-        <v>66.21639251708984</v>
+        <v>66.65716552734375</v>
       </c>
       <c r="J45" t="n">
-        <v>583.5687866210938</v>
+        <v>580.4483032226562</v>
       </c>
       <c r="K45" t="n">
-        <v>159.824462890625</v>
+        <v>153.8462066650391</v>
       </c>
     </row>
     <row r="46">
@@ -2048,16 +2048,16 @@
         <v>45.11415223222625</v>
       </c>
       <c r="H46" t="n">
-        <v>313.2734680175781</v>
+        <v>311.4277954101562</v>
       </c>
       <c r="I46" t="n">
-        <v>73.93838500976562</v>
+        <v>74.016845703125</v>
       </c>
       <c r="J46" t="n">
-        <v>726.231689453125</v>
+        <v>724.6500854492188</v>
       </c>
       <c r="K46" t="n">
-        <v>175.3127136230469</v>
+        <v>175.9604187011719</v>
       </c>
     </row>
     <row r="47">
@@ -2083,16 +2083,16 @@
         <v>44.97584185956661</v>
       </c>
       <c r="H47" t="n">
-        <v>379.7908935546875</v>
+        <v>379.6491088867188</v>
       </c>
       <c r="I47" t="n">
-        <v>93.00751495361328</v>
+        <v>93.30711364746094</v>
       </c>
       <c r="J47" t="n">
-        <v>824.7255859375</v>
+        <v>817.1614990234375</v>
       </c>
       <c r="K47" t="n">
-        <v>198.6421508789062</v>
+        <v>196.5397491455078</v>
       </c>
     </row>
     <row r="48">
@@ -2118,16 +2118,16 @@
         <v>42.0865253634753</v>
       </c>
       <c r="H48" t="n">
-        <v>470.8958740234375</v>
+        <v>469.3536376953125</v>
       </c>
       <c r="I48" t="n">
-        <v>97.03096771240234</v>
+        <v>97.39600372314453</v>
       </c>
       <c r="J48" t="n">
-        <v>866.6036376953125</v>
+        <v>872.580810546875</v>
       </c>
       <c r="K48" t="n">
-        <v>205.8320465087891</v>
+        <v>202.7805786132812</v>
       </c>
     </row>
     <row r="49">
@@ -2153,16 +2153,16 @@
         <v>40.81585186348995</v>
       </c>
       <c r="H49" t="n">
-        <v>604.3401489257812</v>
+        <v>605.41943359375</v>
       </c>
       <c r="I49" t="n">
-        <v>92.68982696533203</v>
+        <v>92.78461456298828</v>
       </c>
       <c r="J49" t="n">
-        <v>888.0961303710938</v>
+        <v>883.6693725585938</v>
       </c>
       <c r="K49" t="n">
-        <v>210.9815521240234</v>
+        <v>214.0553436279297</v>
       </c>
     </row>
     <row r="50">
@@ -2188,16 +2188,16 @@
         <v>45.37200448015243</v>
       </c>
       <c r="H50" t="n">
-        <v>199.8296813964844</v>
+        <v>200.4098815917969</v>
       </c>
       <c r="I50" t="n">
-        <v>65.76258850097656</v>
+        <v>63.25901794433594</v>
       </c>
       <c r="J50" t="n">
-        <v>203.0294952392578</v>
+        <v>205.8747711181641</v>
       </c>
       <c r="K50" t="n">
-        <v>133.1940460205078</v>
+        <v>135.3424530029297</v>
       </c>
     </row>
     <row r="51">
@@ -2223,16 +2223,16 @@
         <v>48.78786662406539</v>
       </c>
       <c r="H51" t="n">
-        <v>217.7416076660156</v>
+        <v>217.3635559082031</v>
       </c>
       <c r="I51" t="n">
-        <v>69.74638366699219</v>
+        <v>70.77454376220703</v>
       </c>
       <c r="J51" t="n">
-        <v>253.3217468261719</v>
+        <v>253.5057525634766</v>
       </c>
       <c r="K51" t="n">
-        <v>132.6610260009766</v>
+        <v>140.7624816894531</v>
       </c>
     </row>
     <row r="52">
@@ -2258,16 +2258,16 @@
         <v>50.73675625671652</v>
       </c>
       <c r="H52" t="n">
-        <v>233.3015899658203</v>
+        <v>229.4110870361328</v>
       </c>
       <c r="I52" t="n">
-        <v>75.60569000244141</v>
+        <v>73.54225158691406</v>
       </c>
       <c r="J52" t="n">
-        <v>299.5093688964844</v>
+        <v>301.634521484375</v>
       </c>
       <c r="K52" t="n">
-        <v>146.6539459228516</v>
+        <v>145.8384094238281</v>
       </c>
     </row>
     <row r="53">
@@ -2293,16 +2293,16 @@
         <v>51.96609868449762</v>
       </c>
       <c r="H53" t="n">
-        <v>259.4381103515625</v>
+        <v>257.6707458496094</v>
       </c>
       <c r="I53" t="n">
-        <v>78.07847595214844</v>
+        <v>76.76126098632812</v>
       </c>
       <c r="J53" t="n">
-        <v>412.3471984863281</v>
+        <v>413.9411315917969</v>
       </c>
       <c r="K53" t="n">
-        <v>164.7111511230469</v>
+        <v>154.0391235351562</v>
       </c>
     </row>
     <row r="54">
@@ -2328,16 +2328,16 @@
         <v>52.45736467440484</v>
       </c>
       <c r="H54" t="n">
-        <v>298.3362426757812</v>
+        <v>296.7374877929688</v>
       </c>
       <c r="I54" t="n">
-        <v>85.18380737304688</v>
+        <v>84.88794708251953</v>
       </c>
       <c r="J54" t="n">
-        <v>541.7854614257812</v>
+        <v>537.1215209960938</v>
       </c>
       <c r="K54" t="n">
-        <v>183.7790985107422</v>
+        <v>180.6611022949219</v>
       </c>
     </row>
     <row r="55">
@@ -2363,16 +2363,16 @@
         <v>51.85220057025387</v>
       </c>
       <c r="H55" t="n">
-        <v>334.2190551757812</v>
+        <v>333.1692810058594</v>
       </c>
       <c r="I55" t="n">
-        <v>92.55135345458984</v>
+        <v>91.66702270507812</v>
       </c>
       <c r="J55" t="n">
-        <v>661.18798828125</v>
+        <v>659.497314453125</v>
       </c>
       <c r="K55" t="n">
-        <v>188.4744720458984</v>
+        <v>186.4423828125</v>
       </c>
     </row>
     <row r="56">
@@ -2398,16 +2398,16 @@
         <v>51.37276147532685</v>
       </c>
       <c r="H56" t="n">
-        <v>391.5611572265625</v>
+        <v>394.5169067382812</v>
       </c>
       <c r="I56" t="n">
-        <v>101.5388259887695</v>
+        <v>100.6688003540039</v>
       </c>
       <c r="J56" t="n">
-        <v>767.4400024414062</v>
+        <v>751.1856689453125</v>
       </c>
       <c r="K56" t="n">
-        <v>213.0002899169922</v>
+        <v>208.5427703857422</v>
       </c>
     </row>
     <row r="57">
@@ -2433,16 +2433,16 @@
         <v>49.881475732815</v>
       </c>
       <c r="H57" t="n">
-        <v>457.0783996582031</v>
+        <v>458.7162475585938</v>
       </c>
       <c r="I57" t="n">
-        <v>98.80857849121094</v>
+        <v>99.08174133300781</v>
       </c>
       <c r="J57" t="n">
-        <v>839.5075073242188</v>
+        <v>847.164306640625</v>
       </c>
       <c r="K57" t="n">
-        <v>218.9898223876953</v>
+        <v>217.7646484375</v>
       </c>
     </row>
     <row r="58">
@@ -2468,16 +2468,16 @@
         <v>46.147295090649</v>
       </c>
       <c r="H58" t="n">
-        <v>584.194580078125</v>
+        <v>582.7665405273438</v>
       </c>
       <c r="I58" t="n">
-        <v>87.29092407226562</v>
+        <v>87.60305023193359</v>
       </c>
       <c r="J58" t="n">
-        <v>883.409912109375</v>
+        <v>881.3033447265625</v>
       </c>
       <c r="K58" t="n">
-        <v>226.2100982666016</v>
+        <v>229.8838348388672</v>
       </c>
     </row>
     <row r="59">
@@ -2503,16 +2503,16 @@
         <v>56.70921047332411</v>
       </c>
       <c r="H59" t="n">
-        <v>224.9997406005859</v>
+        <v>230.2404937744141</v>
       </c>
       <c r="I59" t="n">
-        <v>77.72616577148438</v>
+        <v>82.55198669433594</v>
       </c>
       <c r="J59" t="n">
-        <v>188.454833984375</v>
+        <v>189.8048248291016</v>
       </c>
       <c r="K59" t="n">
-        <v>138.42578125</v>
+        <v>138.4268341064453</v>
       </c>
     </row>
     <row r="60">
@@ -2538,16 +2538,16 @@
         <v>58.23723423416003</v>
       </c>
       <c r="H60" t="n">
-        <v>246.5797729492188</v>
+        <v>248.1060485839844</v>
       </c>
       <c r="I60" t="n">
-        <v>87.06369781494141</v>
+        <v>87.83925628662109</v>
       </c>
       <c r="J60" t="n">
-        <v>258.8993835449219</v>
+        <v>263.4138488769531</v>
       </c>
       <c r="K60" t="n">
-        <v>156.1820526123047</v>
+        <v>156.7712097167969</v>
       </c>
     </row>
     <row r="61">
@@ -2573,16 +2573,16 @@
         <v>59.34611390594659</v>
       </c>
       <c r="H61" t="n">
-        <v>267.601318359375</v>
+        <v>268.6857604980469</v>
       </c>
       <c r="I61" t="n">
-        <v>88.827392578125</v>
+        <v>87.30862426757812</v>
       </c>
       <c r="J61" t="n">
-        <v>329.7908935546875</v>
+        <v>323.8128967285156</v>
       </c>
       <c r="K61" t="n">
-        <v>177.4644165039062</v>
+        <v>168.1891784667969</v>
       </c>
     </row>
     <row r="62">
@@ -2608,16 +2608,16 @@
         <v>59.33493295870724</v>
       </c>
       <c r="H62" t="n">
-        <v>306.0677795410156</v>
+        <v>304.478271484375</v>
       </c>
       <c r="I62" t="n">
-        <v>95.95274353027344</v>
+        <v>96.32747650146484</v>
       </c>
       <c r="J62" t="n">
-        <v>446.1762084960938</v>
+        <v>441.0448303222656</v>
       </c>
       <c r="K62" t="n">
-        <v>173.2152404785156</v>
+        <v>181.2316741943359</v>
       </c>
     </row>
     <row r="63">
@@ -2643,16 +2643,16 @@
         <v>58.39353789451046</v>
       </c>
       <c r="H63" t="n">
-        <v>345.5138549804688</v>
+        <v>345.1649169921875</v>
       </c>
       <c r="I63" t="n">
-        <v>103.2876052856445</v>
+        <v>104.0908432006836</v>
       </c>
       <c r="J63" t="n">
-        <v>576.69580078125</v>
+        <v>573.9458618164062</v>
       </c>
       <c r="K63" t="n">
-        <v>208.3401794433594</v>
+        <v>202.2452087402344</v>
       </c>
     </row>
     <row r="64">
@@ -2678,16 +2678,16 @@
         <v>57.3323684814925</v>
       </c>
       <c r="H64" t="n">
-        <v>399.5919494628906</v>
+        <v>398.9727478027344</v>
       </c>
       <c r="I64" t="n">
-        <v>108.1975631713867</v>
+        <v>108.7034530639648</v>
       </c>
       <c r="J64" t="n">
-        <v>707.1427001953125</v>
+        <v>699.7695922851562</v>
       </c>
       <c r="K64" t="n">
-        <v>217.4626312255859</v>
+        <v>217.1912536621094</v>
       </c>
     </row>
     <row r="65">
@@ -2713,16 +2713,16 @@
         <v>54.83283250514894</v>
       </c>
       <c r="H65" t="n">
-        <v>462.8949584960938</v>
+        <v>458.7964172363281</v>
       </c>
       <c r="I65" t="n">
-        <v>102.7810516357422</v>
+        <v>100.7669982910156</v>
       </c>
       <c r="J65" t="n">
-        <v>805.4486694335938</v>
+        <v>810.503662109375</v>
       </c>
       <c r="K65" t="n">
-        <v>226.6765594482422</v>
+        <v>234.3475036621094</v>
       </c>
     </row>
     <row r="66">
@@ -2748,16 +2748,16 @@
         <v>66.18771861830042</v>
       </c>
       <c r="H66" t="n">
-        <v>259.5219116210938</v>
+        <v>258.209716796875</v>
       </c>
       <c r="I66" t="n">
-        <v>100.3670120239258</v>
+        <v>101.3102035522461</v>
       </c>
       <c r="J66" t="n">
-        <v>177.8690032958984</v>
+        <v>184.1278991699219</v>
       </c>
       <c r="K66" t="n">
-        <v>155.5473327636719</v>
+        <v>166.5591430664062</v>
       </c>
     </row>
     <row r="67">
@@ -2783,16 +2783,16 @@
         <v>66.85471859160208</v>
       </c>
       <c r="H67" t="n">
-        <v>269.1224365234375</v>
+        <v>280.3283996582031</v>
       </c>
       <c r="I67" t="n">
-        <v>100.4411392211914</v>
+        <v>106.7614593505859</v>
       </c>
       <c r="J67" t="n">
-        <v>241.4737548828125</v>
+        <v>238.7460632324219</v>
       </c>
       <c r="K67" t="n">
-        <v>170.5452728271484</v>
+        <v>159.3744049072266</v>
       </c>
     </row>
     <row r="68">
@@ -2818,16 +2818,16 @@
         <v>66.29608309198557</v>
       </c>
       <c r="H68" t="n">
-        <v>316.1244812011719</v>
+        <v>316.4578552246094</v>
       </c>
       <c r="I68" t="n">
-        <v>111.3926696777344</v>
+        <v>111.2572631835938</v>
       </c>
       <c r="J68" t="n">
-        <v>391.2154235839844</v>
+        <v>372.5737609863281</v>
       </c>
       <c r="K68" t="n">
-        <v>201.0429840087891</v>
+        <v>197.2591247558594</v>
       </c>
     </row>
     <row r="69">
@@ -2853,16 +2853,16 @@
         <v>65.32452373485688</v>
       </c>
       <c r="H69" t="n">
-        <v>345.6578369140625</v>
+        <v>341.9916076660156</v>
       </c>
       <c r="I69" t="n">
-        <v>113.9856185913086</v>
+        <v>112.6079406738281</v>
       </c>
       <c r="J69" t="n">
-        <v>474.6802978515625</v>
+        <v>482.9501953125</v>
       </c>
       <c r="K69" t="n">
-        <v>209.7657623291016</v>
+        <v>210.0525360107422</v>
       </c>
     </row>
     <row r="70">
@@ -2888,16 +2888,16 @@
         <v>63.37031159981304</v>
       </c>
       <c r="H70" t="n">
-        <v>401.4325256347656</v>
+        <v>405.3635559082031</v>
       </c>
       <c r="I70" t="n">
-        <v>115.1231079101562</v>
+        <v>112.9101104736328</v>
       </c>
       <c r="J70" t="n">
-        <v>641.9036254882812</v>
+        <v>632.380615234375</v>
       </c>
       <c r="K70" t="n">
-        <v>230.7678985595703</v>
+        <v>222.02490234375</v>
       </c>
     </row>
   </sheetData>

--- a/04_Model_Saved/NN_full_RepeatedKFold_v3_BO_test/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML.xlsx
+++ b/04_Model_Saved/NN_full_RepeatedKFold_v3_BO_test/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML.xlsx
@@ -505,16 +505,16 @@
         <v>14.31699359657089</v>
       </c>
       <c r="G2" t="n">
-        <v>230.5074157714844</v>
+        <v>230.7772979736328</v>
       </c>
       <c r="H2" t="n">
-        <v>51.00588226318359</v>
+        <v>52.33251190185547</v>
       </c>
       <c r="I2" t="n">
-        <v>651.3572998046875</v>
+        <v>650.0555419921875</v>
       </c>
       <c r="J2" t="n">
-        <v>113.3986511230469</v>
+        <v>115.2365798950195</v>
       </c>
     </row>
     <row r="3">
@@ -537,16 +537,16 @@
         <v>15.27891067420843</v>
       </c>
       <c r="G3" t="n">
-        <v>242.5823211669922</v>
+        <v>241.7257537841797</v>
       </c>
       <c r="H3" t="n">
-        <v>54.23148727416992</v>
+        <v>52.92983627319336</v>
       </c>
       <c r="I3" t="n">
-        <v>714.8651123046875</v>
+        <v>716.123291015625</v>
       </c>
       <c r="J3" t="n">
-        <v>126.7617645263672</v>
+        <v>123.1356964111328</v>
       </c>
     </row>
     <row r="4">
@@ -569,16 +569,16 @@
         <v>15.85974020072816</v>
       </c>
       <c r="G4" t="n">
-        <v>263.5023193359375</v>
+        <v>259.6390686035156</v>
       </c>
       <c r="H4" t="n">
-        <v>57.00833892822266</v>
+        <v>52.59910583496094</v>
       </c>
       <c r="I4" t="n">
-        <v>765.2446899414062</v>
+        <v>763.5250244140625</v>
       </c>
       <c r="J4" t="n">
-        <v>132.70849609375</v>
+        <v>130.0274658203125</v>
       </c>
     </row>
     <row r="5">
@@ -601,16 +601,16 @@
         <v>16.6254486072678</v>
       </c>
       <c r="G5" t="n">
-        <v>294.4473571777344</v>
+        <v>293.52685546875</v>
       </c>
       <c r="H5" t="n">
-        <v>64.95762634277344</v>
+        <v>65.27518463134766</v>
       </c>
       <c r="I5" t="n">
-        <v>799.0062255859375</v>
+        <v>799.4393920898438</v>
       </c>
       <c r="J5" t="n">
-        <v>143.0158081054688</v>
+        <v>139.4001617431641</v>
       </c>
     </row>
     <row r="6">
@@ -633,16 +633,16 @@
         <v>16.72168606967666</v>
       </c>
       <c r="G6" t="n">
-        <v>370.6673583984375</v>
+        <v>367.1414184570312</v>
       </c>
       <c r="H6" t="n">
-        <v>115.0116119384766</v>
+        <v>116.7546691894531</v>
       </c>
       <c r="I6" t="n">
-        <v>834.1270141601562</v>
+        <v>837.1543579101562</v>
       </c>
       <c r="J6" t="n">
-        <v>152.1910552978516</v>
+        <v>148.4026031494141</v>
       </c>
     </row>
     <row r="7">
@@ -665,16 +665,16 @@
         <v>17.58023045110392</v>
       </c>
       <c r="G7" t="n">
-        <v>214.8732452392578</v>
+        <v>215.5818481445312</v>
       </c>
       <c r="H7" t="n">
-        <v>55.02595138549805</v>
+        <v>54.37981033325195</v>
       </c>
       <c r="I7" t="n">
-        <v>574.1725463867188</v>
+        <v>570.4260864257812</v>
       </c>
       <c r="J7" t="n">
-        <v>109.5915298461914</v>
+        <v>110.565788269043</v>
       </c>
     </row>
     <row r="8">
@@ -697,16 +697,16 @@
         <v>18.57818076528054</v>
       </c>
       <c r="G8" t="n">
-        <v>223.5432586669922</v>
+        <v>223.5319061279297</v>
       </c>
       <c r="H8" t="n">
-        <v>52.5711669921875</v>
+        <v>54.11453628540039</v>
       </c>
       <c r="I8" t="n">
-        <v>616.0824584960938</v>
+        <v>619.0181884765625</v>
       </c>
       <c r="J8" t="n">
-        <v>114.5851058959961</v>
+        <v>120.6710586547852</v>
       </c>
     </row>
     <row r="9">
@@ -729,16 +729,16 @@
         <v>19.60838259075554</v>
       </c>
       <c r="G9" t="n">
-        <v>239.4247894287109</v>
+        <v>236.2878570556641</v>
       </c>
       <c r="H9" t="n">
-        <v>49.75124740600586</v>
+        <v>51.03031921386719</v>
       </c>
       <c r="I9" t="n">
-        <v>686.9814453125</v>
+        <v>687.1788330078125</v>
       </c>
       <c r="J9" t="n">
-        <v>123.9093170166016</v>
+        <v>122.9201583862305</v>
       </c>
     </row>
     <row r="10">
@@ -761,16 +761,16 @@
         <v>20.10500298210745</v>
       </c>
       <c r="G10" t="n">
-        <v>246.7578125</v>
+        <v>245.9441375732422</v>
       </c>
       <c r="H10" t="n">
-        <v>50.01617431640625</v>
+        <v>47.77466201782227</v>
       </c>
       <c r="I10" t="n">
-        <v>731.7601318359375</v>
+        <v>734.5853271484375</v>
       </c>
       <c r="J10" t="n">
-        <v>128.5771331787109</v>
+        <v>130.6760864257812</v>
       </c>
     </row>
     <row r="11">
@@ -793,16 +793,16 @@
         <v>20.82282672295324</v>
       </c>
       <c r="G11" t="n">
-        <v>273.1288757324219</v>
+        <v>275.7216491699219</v>
       </c>
       <c r="H11" t="n">
-        <v>51.77995681762695</v>
+        <v>53.66117858886719</v>
       </c>
       <c r="I11" t="n">
-        <v>786.8255004882812</v>
+        <v>783.9323120117188</v>
       </c>
       <c r="J11" t="n">
-        <v>142.1650543212891</v>
+        <v>135.6908416748047</v>
       </c>
     </row>
     <row r="12">
@@ -825,16 +825,16 @@
         <v>21.05931589769223</v>
       </c>
       <c r="G12" t="n">
-        <v>341.9767150878906</v>
+        <v>337.8352661132812</v>
       </c>
       <c r="H12" t="n">
-        <v>98.91610717773438</v>
+        <v>94.41996002197266</v>
       </c>
       <c r="I12" t="n">
-        <v>824.4842529296875</v>
+        <v>823.280029296875</v>
       </c>
       <c r="J12" t="n">
-        <v>152.9706573486328</v>
+        <v>154.3233795166016</v>
       </c>
     </row>
     <row r="13">
@@ -857,16 +857,16 @@
         <v>21.38449445236935</v>
       </c>
       <c r="G13" t="n">
-        <v>470.7202453613281</v>
+        <v>472.9132385253906</v>
       </c>
       <c r="H13" t="n">
-        <v>141.0181274414062</v>
+        <v>149.0468292236328</v>
       </c>
       <c r="I13" t="n">
-        <v>862.983154296875</v>
+        <v>863.56689453125</v>
       </c>
       <c r="J13" t="n">
-        <v>166.7132110595703</v>
+        <v>160.6670227050781</v>
       </c>
     </row>
     <row r="14">
@@ -889,16 +889,16 @@
         <v>19.79697020692051</v>
       </c>
       <c r="G14" t="n">
-        <v>196.413818359375</v>
+        <v>194.9330139160156</v>
       </c>
       <c r="H14" t="n">
-        <v>59.40049743652344</v>
+        <v>55.97922515869141</v>
       </c>
       <c r="I14" t="n">
-        <v>432.1044921875</v>
+        <v>430.5730590820312</v>
       </c>
       <c r="J14" t="n">
-        <v>112.2363586425781</v>
+        <v>112.6202697753906</v>
       </c>
     </row>
     <row r="15">
@@ -921,16 +921,16 @@
         <v>21.48203443327129</v>
       </c>
       <c r="G15" t="n">
-        <v>210.3117218017578</v>
+        <v>209.5743865966797</v>
       </c>
       <c r="H15" t="n">
-        <v>55.27752304077148</v>
+        <v>52.63881683349609</v>
       </c>
       <c r="I15" t="n">
-        <v>513.8297119140625</v>
+        <v>514.0782470703125</v>
       </c>
       <c r="J15" t="n">
-        <v>114.9442520141602</v>
+        <v>117.3507843017578</v>
       </c>
     </row>
     <row r="16">
@@ -953,16 +953,16 @@
         <v>22.47631622738632</v>
       </c>
       <c r="G16" t="n">
-        <v>229.5373992919922</v>
+        <v>228.8561401367188</v>
       </c>
       <c r="H16" t="n">
-        <v>56.04856109619141</v>
+        <v>54.66289901733398</v>
       </c>
       <c r="I16" t="n">
-        <v>648.2885131835938</v>
+        <v>653.99853515625</v>
       </c>
       <c r="J16" t="n">
-        <v>125.3469009399414</v>
+        <v>131.3431701660156</v>
       </c>
     </row>
     <row r="17">
@@ -985,16 +985,16 @@
         <v>24.35763244318183</v>
       </c>
       <c r="G17" t="n">
-        <v>235.5306549072266</v>
+        <v>237.7764587402344</v>
       </c>
       <c r="H17" t="n">
-        <v>51.52834701538086</v>
+        <v>51.72635269165039</v>
       </c>
       <c r="I17" t="n">
-        <v>662.2024536132812</v>
+        <v>666.7745361328125</v>
       </c>
       <c r="J17" t="n">
-        <v>126.1841430664062</v>
+        <v>123.2519454956055</v>
       </c>
     </row>
     <row r="18">
@@ -1017,16 +1017,16 @@
         <v>25.62064236797445</v>
       </c>
       <c r="G18" t="n">
-        <v>248.8944244384766</v>
+        <v>247.5555725097656</v>
       </c>
       <c r="H18" t="n">
-        <v>48.24203109741211</v>
+        <v>47.11430358886719</v>
       </c>
       <c r="I18" t="n">
-        <v>724.4276123046875</v>
+        <v>729.7215576171875</v>
       </c>
       <c r="J18" t="n">
-        <v>132.4651947021484</v>
+        <v>134.2503967285156</v>
       </c>
     </row>
     <row r="19">
@@ -1049,16 +1049,16 @@
         <v>25.92967709475499</v>
       </c>
       <c r="G19" t="n">
-        <v>271.8332214355469</v>
+        <v>272.3536071777344</v>
       </c>
       <c r="H19" t="n">
-        <v>46.58295440673828</v>
+        <v>48.43052291870117</v>
       </c>
       <c r="I19" t="n">
-        <v>778.0105590820312</v>
+        <v>787.3045654296875</v>
       </c>
       <c r="J19" t="n">
-        <v>151.1554718017578</v>
+        <v>147.6367034912109</v>
       </c>
     </row>
     <row r="20">
@@ -1081,16 +1081,16 @@
         <v>26.19588155013293</v>
       </c>
       <c r="G20" t="n">
-        <v>313.2543640136719</v>
+        <v>315.3802795410156</v>
       </c>
       <c r="H20" t="n">
-        <v>64.64254760742188</v>
+        <v>70.36198425292969</v>
       </c>
       <c r="I20" t="n">
-        <v>828.4257202148438</v>
+        <v>823.3587646484375</v>
       </c>
       <c r="J20" t="n">
-        <v>154.8952026367188</v>
+        <v>160.3725280761719</v>
       </c>
     </row>
     <row r="21">
@@ -1113,16 +1113,16 @@
         <v>25.87267490890685</v>
       </c>
       <c r="G21" t="n">
-        <v>449.5559387207031</v>
+        <v>448.8667297363281</v>
       </c>
       <c r="H21" t="n">
-        <v>131.2936706542969</v>
+        <v>133.2614440917969</v>
       </c>
       <c r="I21" t="n">
-        <v>862.6661987304688</v>
+        <v>857.7344360351562</v>
       </c>
       <c r="J21" t="n">
-        <v>173.5661010742188</v>
+        <v>172.6598510742188</v>
       </c>
     </row>
     <row r="22">
@@ -1145,16 +1145,16 @@
         <v>24.64055238634836</v>
       </c>
       <c r="G22" t="n">
-        <v>692.4891967773438</v>
+        <v>692.1721801757812</v>
       </c>
       <c r="H22" t="n">
-        <v>103.0542068481445</v>
+        <v>103.5066299438477</v>
       </c>
       <c r="I22" t="n">
-        <v>893.62158203125</v>
+        <v>885.7581176757812</v>
       </c>
       <c r="J22" t="n">
-        <v>194.8625183105469</v>
+        <v>188.8643646240234</v>
       </c>
     </row>
     <row r="23">
@@ -1177,16 +1177,16 @@
         <v>24.69862396067251</v>
       </c>
       <c r="G23" t="n">
-        <v>192.6835021972656</v>
+        <v>191.6619720458984</v>
       </c>
       <c r="H23" t="n">
-        <v>57.22587203979492</v>
+        <v>56.80625915527344</v>
       </c>
       <c r="I23" t="n">
-        <v>362.4026794433594</v>
+        <v>360.525390625</v>
       </c>
       <c r="J23" t="n">
-        <v>117.3560562133789</v>
+        <v>121.9391555786133</v>
       </c>
     </row>
     <row r="24">
@@ -1209,16 +1209,16 @@
         <v>27.11629087610016</v>
       </c>
       <c r="G24" t="n">
-        <v>206.1559143066406</v>
+        <v>205.1444702148438</v>
       </c>
       <c r="H24" t="n">
-        <v>56.17998504638672</v>
+        <v>54.87282562255859</v>
       </c>
       <c r="I24" t="n">
-        <v>427.3899841308594</v>
+        <v>430.8004150390625</v>
       </c>
       <c r="J24" t="n">
-        <v>123.0372619628906</v>
+        <v>128.1466217041016</v>
       </c>
     </row>
     <row r="25">
@@ -1241,16 +1241,16 @@
         <v>28.97995691733995</v>
       </c>
       <c r="G25" t="n">
-        <v>220.9031982421875</v>
+        <v>221.09814453125</v>
       </c>
       <c r="H25" t="n">
-        <v>55.25986862182617</v>
+        <v>53.68166351318359</v>
       </c>
       <c r="I25" t="n">
-        <v>539.5006713867188</v>
+        <v>530.2490844726562</v>
       </c>
       <c r="J25" t="n">
-        <v>130.6166839599609</v>
+        <v>132.8516082763672</v>
       </c>
     </row>
     <row r="26">
@@ -1273,16 +1273,16 @@
         <v>30.34265377319738</v>
       </c>
       <c r="G26" t="n">
-        <v>237.9979400634766</v>
+        <v>239.2642974853516</v>
       </c>
       <c r="H26" t="n">
-        <v>53.90518951416016</v>
+        <v>53.49520111083984</v>
       </c>
       <c r="I26" t="n">
-        <v>613.7579345703125</v>
+        <v>615.2079467773438</v>
       </c>
       <c r="J26" t="n">
-        <v>133.0203704833984</v>
+        <v>128.3857269287109</v>
       </c>
     </row>
     <row r="27">
@@ -1305,16 +1305,16 @@
         <v>31.86528713449996</v>
       </c>
       <c r="G27" t="n">
-        <v>255.0675811767578</v>
+        <v>258.1622314453125</v>
       </c>
       <c r="H27" t="n">
-        <v>49.65467834472656</v>
+        <v>52.7711296081543</v>
       </c>
       <c r="I27" t="n">
-        <v>705.0682373046875</v>
+        <v>713.9509887695312</v>
       </c>
       <c r="J27" t="n">
-        <v>137.0765380859375</v>
+        <v>137.7633666992188</v>
       </c>
     </row>
     <row r="28">
@@ -1337,16 +1337,16 @@
         <v>31.70139237157215</v>
       </c>
       <c r="G28" t="n">
-        <v>277.5771179199219</v>
+        <v>278.2063598632812</v>
       </c>
       <c r="H28" t="n">
-        <v>50.42884063720703</v>
+        <v>50.94794845581055</v>
       </c>
       <c r="I28" t="n">
-        <v>782.4070434570312</v>
+        <v>783.5148315429688</v>
       </c>
       <c r="J28" t="n">
-        <v>152.0147247314453</v>
+        <v>150.7657012939453</v>
       </c>
     </row>
     <row r="29">
@@ -1369,16 +1369,16 @@
         <v>31.7420363140709</v>
       </c>
       <c r="G29" t="n">
-        <v>314.3028564453125</v>
+        <v>314.0729064941406</v>
       </c>
       <c r="H29" t="n">
-        <v>62.13641357421875</v>
+        <v>60.42181396484375</v>
       </c>
       <c r="I29" t="n">
-        <v>833.7362670898438</v>
+        <v>831.0484619140625</v>
       </c>
       <c r="J29" t="n">
-        <v>166.0406494140625</v>
+        <v>163.9294281005859</v>
       </c>
     </row>
     <row r="30">
@@ -1401,16 +1401,16 @@
         <v>30.76237588603813</v>
       </c>
       <c r="G30" t="n">
-        <v>450.0652465820312</v>
+        <v>446.3907165527344</v>
       </c>
       <c r="H30" t="n">
-        <v>115.4655456542969</v>
+        <v>115.1473083496094</v>
       </c>
       <c r="I30" t="n">
-        <v>868.8226928710938</v>
+        <v>867.6674194335938</v>
       </c>
       <c r="J30" t="n">
-        <v>187.2017211914062</v>
+        <v>186.3528594970703</v>
       </c>
     </row>
     <row r="31">
@@ -1433,16 +1433,16 @@
         <v>29.73442789455431</v>
       </c>
       <c r="G31" t="n">
-        <v>670.0642700195312</v>
+        <v>672.59521484375</v>
       </c>
       <c r="H31" t="n">
-        <v>99.05995941162109</v>
+        <v>101.1995468139648</v>
       </c>
       <c r="I31" t="n">
-        <v>884.8856201171875</v>
+        <v>882.483642578125</v>
       </c>
       <c r="J31" t="n">
-        <v>202.3012237548828</v>
+        <v>202.9377288818359</v>
       </c>
     </row>
     <row r="32">
@@ -1465,16 +1465,16 @@
         <v>30.37782838567884</v>
       </c>
       <c r="G32" t="n">
-        <v>188.6125030517578</v>
+        <v>187.0878601074219</v>
       </c>
       <c r="H32" t="n">
-        <v>57.44193649291992</v>
+        <v>54.50351715087891</v>
       </c>
       <c r="I32" t="n">
-        <v>287.0601196289062</v>
+        <v>284.3739013671875</v>
       </c>
       <c r="J32" t="n">
-        <v>126.8703384399414</v>
+        <v>128.3679046630859</v>
       </c>
     </row>
     <row r="33">
@@ -1497,16 +1497,16 @@
         <v>33.11659379389907</v>
       </c>
       <c r="G33" t="n">
-        <v>205.7405700683594</v>
+        <v>204.5805358886719</v>
       </c>
       <c r="H33" t="n">
-        <v>55.80890274047852</v>
+        <v>56.65942764282227</v>
       </c>
       <c r="I33" t="n">
-        <v>370.053955078125</v>
+        <v>367.7456359863281</v>
       </c>
       <c r="J33" t="n">
-        <v>135.5489959716797</v>
+        <v>130.5985107421875</v>
       </c>
     </row>
     <row r="34">
@@ -1529,16 +1529,16 @@
         <v>35.40504769440309</v>
       </c>
       <c r="G34" t="n">
-        <v>225.0285186767578</v>
+        <v>224.0082550048828</v>
       </c>
       <c r="H34" t="n">
-        <v>59.69121170043945</v>
+        <v>57.50605773925781</v>
       </c>
       <c r="I34" t="n">
-        <v>461.2899475097656</v>
+        <v>460.6901550292969</v>
       </c>
       <c r="J34" t="n">
-        <v>142.2483215332031</v>
+        <v>133.9577789306641</v>
       </c>
     </row>
     <row r="35">
@@ -1561,16 +1561,16 @@
         <v>37.57764389518124</v>
       </c>
       <c r="G35" t="n">
-        <v>245.2148895263672</v>
+        <v>248.5633544921875</v>
       </c>
       <c r="H35" t="n">
-        <v>60.1351203918457</v>
+        <v>58.31891632080078</v>
       </c>
       <c r="I35" t="n">
-        <v>549.6416015625</v>
+        <v>558.5647583007812</v>
       </c>
       <c r="J35" t="n">
-        <v>144.8267211914062</v>
+        <v>145.2221069335938</v>
       </c>
     </row>
     <row r="36">
@@ -1593,16 +1593,16 @@
         <v>38.09115608907656</v>
       </c>
       <c r="G36" t="n">
-        <v>268.9480590820312</v>
+        <v>267.4921264648438</v>
       </c>
       <c r="H36" t="n">
-        <v>57.9645881652832</v>
+        <v>57.5121955871582</v>
       </c>
       <c r="I36" t="n">
-        <v>685.1961059570312</v>
+        <v>687.2914428710938</v>
       </c>
       <c r="J36" t="n">
-        <v>150.6685791015625</v>
+        <v>153.5274047851562</v>
       </c>
     </row>
     <row r="37">
@@ -1625,16 +1625,16 @@
         <v>38.33579750611559</v>
       </c>
       <c r="G37" t="n">
-        <v>291.2445983886719</v>
+        <v>294.8401184082031</v>
       </c>
       <c r="H37" t="n">
-        <v>58.81105041503906</v>
+        <v>57.6174430847168</v>
       </c>
       <c r="I37" t="n">
-        <v>778.6915283203125</v>
+        <v>777.5332641601562</v>
       </c>
       <c r="J37" t="n">
-        <v>164.8933715820312</v>
+        <v>166.0909423828125</v>
       </c>
     </row>
     <row r="38">
@@ -1657,16 +1657,16 @@
         <v>37.89528654115976</v>
       </c>
       <c r="G38" t="n">
-        <v>349.2203369140625</v>
+        <v>348.1842041015625</v>
       </c>
       <c r="H38" t="n">
-        <v>80.74787139892578</v>
+        <v>79.74993896484375</v>
       </c>
       <c r="I38" t="n">
-        <v>835.8502807617188</v>
+        <v>849.705810546875</v>
       </c>
       <c r="J38" t="n">
-        <v>172.3763885498047</v>
+        <v>174.7702331542969</v>
       </c>
     </row>
     <row r="39">
@@ -1689,16 +1689,16 @@
         <v>37.04916938976096</v>
       </c>
       <c r="G39" t="n">
-        <v>454.7700500488281</v>
+        <v>452.7748413085938</v>
       </c>
       <c r="H39" t="n">
-        <v>102.775390625</v>
+        <v>102.5424423217773</v>
       </c>
       <c r="I39" t="n">
-        <v>869.3753051757812</v>
+        <v>866.5445556640625</v>
       </c>
       <c r="J39" t="n">
-        <v>197.4269561767578</v>
+        <v>201.1285095214844</v>
       </c>
     </row>
     <row r="40">
@@ -1721,16 +1721,16 @@
         <v>35.00856026880581</v>
       </c>
       <c r="G40" t="n">
-        <v>641.0907592773438</v>
+        <v>642.847900390625</v>
       </c>
       <c r="H40" t="n">
-        <v>97.95307159423828</v>
+        <v>96.81680297851562</v>
       </c>
       <c r="I40" t="n">
-        <v>884.1152954101562</v>
+        <v>892.34716796875</v>
       </c>
       <c r="J40" t="n">
-        <v>210.5867614746094</v>
+        <v>214.2218170166016</v>
       </c>
     </row>
     <row r="41">
@@ -1753,16 +1753,16 @@
         <v>37.58863922492247</v>
       </c>
       <c r="G41" t="n">
-        <v>189.1056976318359</v>
+        <v>193.12939453125</v>
       </c>
       <c r="H41" t="n">
-        <v>58.73274230957031</v>
+        <v>58.04268646240234</v>
       </c>
       <c r="I41" t="n">
-        <v>238.7699432373047</v>
+        <v>249.9932098388672</v>
       </c>
       <c r="J41" t="n">
-        <v>130.8280181884766</v>
+        <v>135.2979583740234</v>
       </c>
     </row>
     <row r="42">
@@ -1785,16 +1785,16 @@
         <v>40.4685427958547</v>
       </c>
       <c r="G42" t="n">
-        <v>208.7481536865234</v>
+        <v>209.373291015625</v>
       </c>
       <c r="H42" t="n">
-        <v>60.0072021484375</v>
+        <v>61.96464538574219</v>
       </c>
       <c r="I42" t="n">
-        <v>303.1099243164062</v>
+        <v>299.4430541992188</v>
       </c>
       <c r="J42" t="n">
-        <v>134.0927886962891</v>
+        <v>137.6656646728516</v>
       </c>
     </row>
     <row r="43">
@@ -1817,16 +1817,16 @@
         <v>42.41365999634309</v>
       </c>
       <c r="G43" t="n">
-        <v>224.73291015625</v>
+        <v>223.3771820068359</v>
       </c>
       <c r="H43" t="n">
-        <v>64.81687164306641</v>
+        <v>66.05357360839844</v>
       </c>
       <c r="I43" t="n">
-        <v>352.7357482910156</v>
+        <v>360.8257446289062</v>
       </c>
       <c r="J43" t="n">
-        <v>137.0229949951172</v>
+        <v>137.9720458984375</v>
       </c>
     </row>
     <row r="44">
@@ -1849,16 +1849,16 @@
         <v>44.05056700894834</v>
       </c>
       <c r="G44" t="n">
-        <v>254.1364135742188</v>
+        <v>254.4298248291016</v>
       </c>
       <c r="H44" t="n">
-        <v>65.69799041748047</v>
+        <v>66.38575744628906</v>
       </c>
       <c r="I44" t="n">
-        <v>501.2738952636719</v>
+        <v>492.4296875</v>
       </c>
       <c r="J44" t="n">
-        <v>151.8116302490234</v>
+        <v>158.4645385742188</v>
       </c>
     </row>
     <row r="45">
@@ -1881,16 +1881,16 @@
         <v>45.28527361475503</v>
       </c>
       <c r="G45" t="n">
-        <v>277.2374877929688</v>
+        <v>276.3890380859375</v>
       </c>
       <c r="H45" t="n">
-        <v>69.4566650390625</v>
+        <v>66.62703704833984</v>
       </c>
       <c r="I45" t="n">
-        <v>584.338623046875</v>
+        <v>585.6456298828125</v>
       </c>
       <c r="J45" t="n">
-        <v>166.7792510986328</v>
+        <v>162.0492095947266</v>
       </c>
     </row>
     <row r="46">
@@ -1913,16 +1913,16 @@
         <v>45.11415223222625</v>
       </c>
       <c r="G46" t="n">
-        <v>316.2076416015625</v>
+        <v>314.5921936035156</v>
       </c>
       <c r="H46" t="n">
-        <v>73.88205718994141</v>
+        <v>73.05667877197266</v>
       </c>
       <c r="I46" t="n">
-        <v>723.446533203125</v>
+        <v>711.1054077148438</v>
       </c>
       <c r="J46" t="n">
-        <v>183.854248046875</v>
+        <v>177.8328094482422</v>
       </c>
     </row>
     <row r="47">
@@ -1945,16 +1945,16 @@
         <v>44.97584185956661</v>
       </c>
       <c r="G47" t="n">
-        <v>379.3415222167969</v>
+        <v>380.1296691894531</v>
       </c>
       <c r="H47" t="n">
-        <v>92.77525329589844</v>
+        <v>94.28810882568359</v>
       </c>
       <c r="I47" t="n">
-        <v>825.8826293945312</v>
+        <v>826.9218139648438</v>
       </c>
       <c r="J47" t="n">
-        <v>194.8722686767578</v>
+        <v>203.4463043212891</v>
       </c>
     </row>
     <row r="48">
@@ -1977,16 +1977,16 @@
         <v>42.0865253634753</v>
       </c>
       <c r="G48" t="n">
-        <v>469.0669250488281</v>
+        <v>467.6170349121094</v>
       </c>
       <c r="H48" t="n">
-        <v>96.23479461669922</v>
+        <v>100.8866424560547</v>
       </c>
       <c r="I48" t="n">
-        <v>866.3453979492188</v>
+        <v>876.5038452148438</v>
       </c>
       <c r="J48" t="n">
-        <v>208.4938049316406</v>
+        <v>210.5987396240234</v>
       </c>
     </row>
     <row r="49">
@@ -2009,16 +2009,16 @@
         <v>40.81585186348995</v>
       </c>
       <c r="G49" t="n">
-        <v>602.0280151367188</v>
+        <v>602.0991821289062</v>
       </c>
       <c r="H49" t="n">
-        <v>93.48489379882812</v>
+        <v>92.17555236816406</v>
       </c>
       <c r="I49" t="n">
-        <v>884.736572265625</v>
+        <v>892.7681274414062</v>
       </c>
       <c r="J49" t="n">
-        <v>216.5708160400391</v>
+        <v>213.3173828125</v>
       </c>
     </row>
     <row r="50">
@@ -2041,16 +2041,16 @@
         <v>45.37200448015243</v>
       </c>
       <c r="G50" t="n">
-        <v>198.7453460693359</v>
+        <v>201.9862518310547</v>
       </c>
       <c r="H50" t="n">
-        <v>66.94572448730469</v>
+        <v>64.35614776611328</v>
       </c>
       <c r="I50" t="n">
-        <v>207.5283813476562</v>
+        <v>204.6562042236328</v>
       </c>
       <c r="J50" t="n">
-        <v>135.8039855957031</v>
+        <v>134.9493103027344</v>
       </c>
     </row>
     <row r="51">
@@ -2073,16 +2073,16 @@
         <v>48.78786662406539</v>
       </c>
       <c r="G51" t="n">
-        <v>217.2572326660156</v>
+        <v>217.8232116699219</v>
       </c>
       <c r="H51" t="n">
-        <v>71.25740814208984</v>
+        <v>67.65139770507812</v>
       </c>
       <c r="I51" t="n">
-        <v>255.2522430419922</v>
+        <v>254.6719818115234</v>
       </c>
       <c r="J51" t="n">
-        <v>137.3498077392578</v>
+        <v>140.4145202636719</v>
       </c>
     </row>
     <row r="52">
@@ -2105,16 +2105,16 @@
         <v>50.73675625671652</v>
       </c>
       <c r="G52" t="n">
-        <v>227.4386138916016</v>
+        <v>233.2431030273438</v>
       </c>
       <c r="H52" t="n">
-        <v>69.68052673339844</v>
+        <v>73.28614044189453</v>
       </c>
       <c r="I52" t="n">
-        <v>297.4350280761719</v>
+        <v>295.4134216308594</v>
       </c>
       <c r="J52" t="n">
-        <v>147.9580841064453</v>
+        <v>143.2452545166016</v>
       </c>
     </row>
     <row r="53">
@@ -2137,16 +2137,16 @@
         <v>51.96609868449762</v>
       </c>
       <c r="G53" t="n">
-        <v>263.0977783203125</v>
+        <v>262.284912109375</v>
       </c>
       <c r="H53" t="n">
-        <v>77.68111419677734</v>
+        <v>77.13790893554688</v>
       </c>
       <c r="I53" t="n">
-        <v>416.4384155273438</v>
+        <v>406.3898010253906</v>
       </c>
       <c r="J53" t="n">
-        <v>164.6242218017578</v>
+        <v>155.73291015625</v>
       </c>
     </row>
     <row r="54">
@@ -2169,16 +2169,16 @@
         <v>52.45736467440484</v>
       </c>
       <c r="G54" t="n">
-        <v>298.4737243652344</v>
+        <v>298.6097412109375</v>
       </c>
       <c r="H54" t="n">
-        <v>82.02607727050781</v>
+        <v>82.67871856689453</v>
       </c>
       <c r="I54" t="n">
-        <v>531.24853515625</v>
+        <v>535.2470092773438</v>
       </c>
       <c r="J54" t="n">
-        <v>175.4448852539062</v>
+        <v>178.1202087402344</v>
       </c>
     </row>
     <row r="55">
@@ -2201,16 +2201,16 @@
         <v>51.85220057025387</v>
       </c>
       <c r="G55" t="n">
-        <v>336.5284118652344</v>
+        <v>340.2413330078125</v>
       </c>
       <c r="H55" t="n">
-        <v>91.29464721679688</v>
+        <v>89.47698974609375</v>
       </c>
       <c r="I55" t="n">
-        <v>658.6768798828125</v>
+        <v>669.983642578125</v>
       </c>
       <c r="J55" t="n">
-        <v>185.5665130615234</v>
+        <v>193.7543487548828</v>
       </c>
     </row>
     <row r="56">
@@ -2233,16 +2233,16 @@
         <v>51.37276147532685</v>
       </c>
       <c r="G56" t="n">
-        <v>389.2930297851562</v>
+        <v>390.8707885742188</v>
       </c>
       <c r="H56" t="n">
-        <v>102.3845901489258</v>
+        <v>101.4813690185547</v>
       </c>
       <c r="I56" t="n">
-        <v>761.4411010742188</v>
+        <v>767.9085693359375</v>
       </c>
       <c r="J56" t="n">
-        <v>212.9581604003906</v>
+        <v>218.4480743408203</v>
       </c>
     </row>
     <row r="57">
@@ -2265,16 +2265,16 @@
         <v>49.881475732815</v>
       </c>
       <c r="G57" t="n">
-        <v>459.3087463378906</v>
+        <v>455.720947265625</v>
       </c>
       <c r="H57" t="n">
-        <v>97.32281494140625</v>
+        <v>100.5854797363281</v>
       </c>
       <c r="I57" t="n">
-        <v>839.4378662109375</v>
+        <v>839.1396484375</v>
       </c>
       <c r="J57" t="n">
-        <v>220.9657745361328</v>
+        <v>218.5587768554688</v>
       </c>
     </row>
     <row r="58">
@@ -2297,16 +2297,16 @@
         <v>46.147295090649</v>
       </c>
       <c r="G58" t="n">
-        <v>584.1246337890625</v>
+        <v>584.148193359375</v>
       </c>
       <c r="H58" t="n">
-        <v>86.24003601074219</v>
+        <v>88.9659423828125</v>
       </c>
       <c r="I58" t="n">
-        <v>883.6538696289062</v>
+        <v>872.8745727539062</v>
       </c>
       <c r="J58" t="n">
-        <v>219.6353912353516</v>
+        <v>226.2368621826172</v>
       </c>
     </row>
     <row r="59">
@@ -2329,16 +2329,16 @@
         <v>56.70921047332411</v>
       </c>
       <c r="G59" t="n">
-        <v>222.9279479980469</v>
+        <v>223.067626953125</v>
       </c>
       <c r="H59" t="n">
-        <v>76.95951843261719</v>
+        <v>79.23940277099609</v>
       </c>
       <c r="I59" t="n">
-        <v>195.0321044921875</v>
+        <v>187.6356811523438</v>
       </c>
       <c r="J59" t="n">
-        <v>140.7662811279297</v>
+        <v>141.5548706054688</v>
       </c>
     </row>
     <row r="60">
@@ -2361,16 +2361,16 @@
         <v>58.23723423416003</v>
       </c>
       <c r="G60" t="n">
-        <v>243.7715911865234</v>
+        <v>242.577392578125</v>
       </c>
       <c r="H60" t="n">
-        <v>83.40374755859375</v>
+        <v>83.24751281738281</v>
       </c>
       <c r="I60" t="n">
-        <v>260.9382629394531</v>
+        <v>258.6630554199219</v>
       </c>
       <c r="J60" t="n">
-        <v>154.9455413818359</v>
+        <v>153.4834899902344</v>
       </c>
     </row>
     <row r="61">
@@ -2393,16 +2393,16 @@
         <v>59.34611390594659</v>
       </c>
       <c r="G61" t="n">
-        <v>268.9564514160156</v>
+        <v>266.5614013671875</v>
       </c>
       <c r="H61" t="n">
-        <v>87.19290161132812</v>
+        <v>86.80902099609375</v>
       </c>
       <c r="I61" t="n">
-        <v>332.9481811523438</v>
+        <v>332.6237182617188</v>
       </c>
       <c r="J61" t="n">
-        <v>176.1167907714844</v>
+        <v>172.0079040527344</v>
       </c>
     </row>
     <row r="62">
@@ -2425,16 +2425,16 @@
         <v>59.33493295870724</v>
       </c>
       <c r="G62" t="n">
-        <v>307.0287780761719</v>
+        <v>306.1191101074219</v>
       </c>
       <c r="H62" t="n">
-        <v>99.18681335449219</v>
+        <v>98.04605865478516</v>
       </c>
       <c r="I62" t="n">
-        <v>444.7643737792969</v>
+        <v>448.5670166015625</v>
       </c>
       <c r="J62" t="n">
-        <v>175.5379638671875</v>
+        <v>179.0339660644531</v>
       </c>
     </row>
     <row r="63">
@@ -2457,16 +2457,16 @@
         <v>58.39353789451046</v>
       </c>
       <c r="G63" t="n">
-        <v>345.5771179199219</v>
+        <v>348.3786315917969</v>
       </c>
       <c r="H63" t="n">
-        <v>102.2968902587891</v>
+        <v>103.2524185180664</v>
       </c>
       <c r="I63" t="n">
-        <v>572.2218017578125</v>
+        <v>568.9158935546875</v>
       </c>
       <c r="J63" t="n">
-        <v>203.9669494628906</v>
+        <v>195.8436126708984</v>
       </c>
     </row>
     <row r="64">
@@ -2489,16 +2489,16 @@
         <v>57.3323684814925</v>
       </c>
       <c r="G64" t="n">
-        <v>399.6101989746094</v>
+        <v>397.3620910644531</v>
       </c>
       <c r="H64" t="n">
-        <v>106.1599349975586</v>
+        <v>109.1365509033203</v>
       </c>
       <c r="I64" t="n">
-        <v>701.362060546875</v>
+        <v>701.7781372070312</v>
       </c>
       <c r="J64" t="n">
-        <v>224.0856475830078</v>
+        <v>219.4797058105469</v>
       </c>
     </row>
     <row r="65">
@@ -2521,16 +2521,16 @@
         <v>54.83283250514894</v>
       </c>
       <c r="G65" t="n">
-        <v>460.6847534179688</v>
+        <v>460.4011535644531</v>
       </c>
       <c r="H65" t="n">
-        <v>101.9413833618164</v>
+        <v>100.7835159301758</v>
       </c>
       <c r="I65" t="n">
-        <v>814.8626708984375</v>
+        <v>809.091552734375</v>
       </c>
       <c r="J65" t="n">
-        <v>229.6546020507812</v>
+        <v>231.2903747558594</v>
       </c>
     </row>
     <row r="66">
@@ -2553,16 +2553,16 @@
         <v>66.18771861830042</v>
       </c>
       <c r="G66" t="n">
-        <v>253.1692504882812</v>
+        <v>258.5714721679688</v>
       </c>
       <c r="H66" t="n">
-        <v>96.58498382568359</v>
+        <v>102.2835845947266</v>
       </c>
       <c r="I66" t="n">
-        <v>175.1070098876953</v>
+        <v>185.511962890625</v>
       </c>
       <c r="J66" t="n">
-        <v>154.6917724609375</v>
+        <v>160.6833343505859</v>
       </c>
     </row>
     <row r="67">
@@ -2585,16 +2585,16 @@
         <v>66.85471859160208</v>
       </c>
       <c r="G67" t="n">
-        <v>277.6702880859375</v>
+        <v>279.1441345214844</v>
       </c>
       <c r="H67" t="n">
-        <v>106.7522583007812</v>
+        <v>109.0851593017578</v>
       </c>
       <c r="I67" t="n">
-        <v>234.9321136474609</v>
+        <v>244.8697357177734</v>
       </c>
       <c r="J67" t="n">
-        <v>179.3208618164062</v>
+        <v>178.4802398681641</v>
       </c>
     </row>
     <row r="68">
@@ -2617,16 +2617,16 @@
         <v>66.29608309198557</v>
       </c>
       <c r="G68" t="n">
-        <v>315.3408203125</v>
+        <v>319.3315734863281</v>
       </c>
       <c r="H68" t="n">
-        <v>111.6073455810547</v>
+        <v>111.9675140380859</v>
       </c>
       <c r="I68" t="n">
-        <v>380.6672668457031</v>
+        <v>382.5666198730469</v>
       </c>
       <c r="J68" t="n">
-        <v>193.3750457763672</v>
+        <v>189.8903198242188</v>
       </c>
     </row>
     <row r="69">
@@ -2649,16 +2649,16 @@
         <v>65.32452373485688</v>
       </c>
       <c r="G69" t="n">
-        <v>345.8394775390625</v>
+        <v>346.1236572265625</v>
       </c>
       <c r="H69" t="n">
-        <v>115.0725326538086</v>
+        <v>112.7519989013672</v>
       </c>
       <c r="I69" t="n">
-        <v>480.0037536621094</v>
+        <v>480.6342163085938</v>
       </c>
       <c r="J69" t="n">
-        <v>210.4398193359375</v>
+        <v>212.3518829345703</v>
       </c>
     </row>
     <row r="70">
@@ -2681,16 +2681,16 @@
         <v>63.37031159981304</v>
       </c>
       <c r="G70" t="n">
-        <v>403.9398803710938</v>
+        <v>401.9588928222656</v>
       </c>
       <c r="H70" t="n">
-        <v>115.9440612792969</v>
+        <v>116.7843627929688</v>
       </c>
       <c r="I70" t="n">
-        <v>645.6743774414062</v>
+        <v>642.0717163085938</v>
       </c>
       <c r="J70" t="n">
-        <v>226.4161071777344</v>
+        <v>222.5381927490234</v>
       </c>
     </row>
   </sheetData>
